--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.36</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>20.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>94.55</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>001907</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004834</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合C</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>80.69</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -716,15 +796,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>92.09</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -734,25 +824,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001907</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>94.36</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2.94</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -800,15 +910,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>72.80</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>3.11</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -846,26 +976,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>004834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>先锋聚利灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>80.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005477</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005478</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长安鑫禧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1229,7 +1230,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,17 +1241,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1260,14 +1281,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.23</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9127</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1276,14 +1319,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9109</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1292,13 +1357,1123 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>165516</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚周期轮动混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7991</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4881</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013141</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚弘远混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3888</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1839</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1431</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0758</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东吴阿尔法灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>26.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.529999999999999</v>
+          <t>001576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.23</v>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.11</v>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,2013 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2722</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011322</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能装备股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8502</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.40</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7275</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5824</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4855</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信中国制造2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3876</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2938</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2264</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1983</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1962</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>020033</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>020034</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰民安增利债券C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>48.78</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000679</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002416</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>74.75</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4459,7 +4460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4470,17 +4471,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4490,14 +4511,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>53</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.65</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5179</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -4506,14 +4549,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.529999999999999</v>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4522,14 +4587,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4538,14 +4625,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.11</v>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4049</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -4554,13 +4663,1569 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3282</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国成长动力混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1735</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1691</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002419</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003593</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰景气行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1524</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国产业升级混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>360005</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信红利混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>100039</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国通胀通缩主题混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009448</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014837</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008541</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得新享混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009449</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰康申润一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008542</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得新享混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014836</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富盈安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>53</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6.69</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D3" t="n">
-        <v>16.65</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>8.529999999999999</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -583,6 +600,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4300,7 +4561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5458,7 +5719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5666,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6026,7 +6287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002463-沪电股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.91</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6.69</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>16.65</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D5" t="n">
-        <v>8.529999999999999</v>
+        <v>16.65</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>8.529999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -600,6 +617,1120 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001268</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2400</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011042</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013280</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013721</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011198</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011043</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰价值先锋股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013722</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信澳景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013733</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013204</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011199</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德鑫选回报混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值领航股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013046</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015007</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧量化动力混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003646</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003647</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013734</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红塔红土盛丰混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>017167</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>景顺长城策略精选C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013044</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国国家安全主题混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>013205</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>恒生前海恒源天利债C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -843,7 +1974,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2491,7 +3622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4561,7 +5692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5719,7 +6850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5927,7 +7058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6287,7 +7418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
